--- a/data/trans_camb/P20_4_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P20_4_R-Urba-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11,84</t>
+          <t>-13,97</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,7</t>
+          <t>-8,67</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,25</t>
+          <t>-11,16</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,22; 21,39</t>
+          <t>-27,6; -1,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,34; 18,62</t>
+          <t>-17,54; 1,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,25; 16,98</t>
+          <t>-19,31; -2,82</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>36,34%</t>
+          <t>-20,85%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>36,05%</t>
+          <t>-12,06%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>36,26%</t>
+          <t>-16,03%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,66; 75,4</t>
+          <t>-38,08; -2,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,12; 70,61</t>
+          <t>-23,63; 2,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,43; 60,01</t>
+          <t>-26,89; -4,72</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>-2,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,26</t>
+          <t>-8,31</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,68</t>
+          <t>-5,38</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,5; 8,32</t>
+          <t>-13,79; 10,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,2; 19,73</t>
+          <t>-18,78; 3,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 11,34</t>
+          <t>-13,66; 3,07</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-4,2%</t>
+          <t>-3,19%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>32,51%</t>
+          <t>-12,42%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,91%</t>
+          <t>-8,29%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-27,89; 26,64</t>
+          <t>-20,46; 19,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,74; 72,03</t>
+          <t>-26,59; 5,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 37,19</t>
+          <t>-19,94; 5,06</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-14,12</t>
+          <t>27,73</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-9,39</t>
+          <t>9,12</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-12,14</t>
+          <t>18,58</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-38,56; 5,88</t>
+          <t>-2,34; 61,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-24,85; 5,61</t>
+          <t>-11,91; 29,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-27,11; 1,48</t>
+          <t>1,19; 42,51</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-25,91%</t>
+          <t>64,72%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-32,79%</t>
+          <t>13,18%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-28,73%</t>
+          <t>33,28%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-59,57; 13,04</t>
+          <t>-2,38; 335,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-67,46; 28,38</t>
+          <t>-13,72; 54,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-54,16; 3,45</t>
+          <t>1,53; 110,19</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,33</t>
+          <t>-4,42</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8,5</t>
+          <t>-6,79</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,08</t>
+          <t>-5,7</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 10,52</t>
+          <t>-13,84; 5,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,34; 14,13</t>
+          <t>-13,43; -0,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,48; 10,58</t>
+          <t>-11,8; 0,14</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>-7,07%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>28,02%</t>
+          <t>-9,75%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>18,24%</t>
+          <t>-8,59%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,24 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-8,22; 31,71</t>
+          <t>-20,85; 9,15</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>10,34; 51,85</t>
+          <t>-18,72; -0,31</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,68; 34,04</t>
+          <t>-17,25; 0,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P20_4_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P20_4_R-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-13,97</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-8,67</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-11,16</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-12.27633129555689</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-10.25505617405809</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-11.226355004162</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-27,6; -1,37</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-17,54; 1,79</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-19,31; -2,82</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-24.80823187051707</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-19.33747499348873</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-18.62398680785453</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-20,85%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-12,06%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-16,03%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.6912564799863411</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.2629743044706559</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-2.629813646936832</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-38,08; -2,76</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-23,63; 2,55</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-26,89; -4,72</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.1832195398636359</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.1426788929412425</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.1611803243835334</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-2,0</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-8,31</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-5,38</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.3362418930531809</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.2625144104898283</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.2589760947821318</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-13,79; 10,64</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-18,78; 3,61</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-13,66; 3,07</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.004541863168873745</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>-0.001244673056184922</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>-0.04221833111266211</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-3,19%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-12,42%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-8,29%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-2.495631859207248</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-9.138024520266608</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-6.005059656531431</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-20,46; 19,37</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-26,59; 5,99</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-19,94; 5,06</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-15.28208880098417</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-20.31136088936402</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-14.1429142621142</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>27,73</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>9,12</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>18,58</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>10.05454614633819</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.589647319591119</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>3.213909140938721</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-2,34; 61,5</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-11,91; 29,89</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>1,19; 42,51</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.03993399306066073</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.1348689950304056</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.0919754424618582</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>64,72%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>13,18%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>33,28%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.2244133919710106</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.2801915521004897</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.2086490348423396</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-2,38; 335,0</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-13,72; 54,4</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>1,53; 110,19</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.1814630542438717</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.02729572815379234</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.05211068338540504</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,93 +775,209 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-4,42</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-6,79</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-5,7</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>29.15243075966387</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>10.88430381355627</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>20.41983484712058</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-13,84; 5,38</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-13,43; -0,12</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-11,8; 0,14</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>0.5561472082505027</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-9.856438584468947</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>3.167677606990516</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-7,07%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-9,75%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-8,59%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>62.69340296632281</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>31.1769307502125</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>43.46562817781216</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-20,85; 9,15</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-18,72; -0,31</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-17,25; 0,22</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.6804340024832796</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.157325588774557</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.3656886295070735</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>0.003780454475881971</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.1150968299954487</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>0.05159369166243735</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>3.401895990415321</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.5665269203450255</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>1.141239261417998</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-3.762585131097762</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-7.647353454876049</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-5.856693993550155</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-12.69561181968326</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-14.44744925688493</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-11.23046782609235</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>6.294443418370921</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>-0.03646045701636788</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1068631698578696</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.06022960137221495</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.1092969419281898</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.08810974138515508</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.1902722305791882</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.1980918388619524</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.1640230340844434</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.1062570180255874</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>-0.0009891618408945173</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.001833547773517622</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -936,11 +985,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
